--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_22_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_22_9.xlsx
@@ -518,111 +518,111 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_7</t>
+          <t>model_22_9_5</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9992987809112048</v>
+        <v>0.9639292969404648</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8246617600073363</v>
+        <v>0.726096943764369</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9995377767285311</v>
+        <v>0.980715681804563</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9986407041867409</v>
+        <v>-3.335141908536895</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9989710774800918</v>
+        <v>0.9330993558877345</v>
       </c>
       <c r="G2" t="n">
-        <v>0.004689055275590287</v>
+        <v>0.2412049574494274</v>
       </c>
       <c r="H2" t="n">
-        <v>1.172487618189301</v>
+        <v>1.831590998255271</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002832534017872928</v>
+        <v>0.3065950217030166</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01455134962286229</v>
+        <v>0.7721410576550958</v>
       </c>
       <c r="K2" t="n">
-        <v>0.008691941820367609</v>
+        <v>0.5393680396790561</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1045660752724421</v>
+        <v>0.9186304096910466</v>
       </c>
       <c r="M2" t="n">
-        <v>0.06847667687315358</v>
+        <v>0.4911262133600969</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000295250142651</v>
+        <v>1.01518766444612</v>
       </c>
       <c r="O2" t="n">
-        <v>0.07139187077390631</v>
+        <v>0.5120344730342524</v>
       </c>
       <c r="P2" t="n">
-        <v>172.725048301181</v>
+        <v>164.8442165221348</v>
       </c>
       <c r="Q2" t="n">
-        <v>271.4539901155052</v>
+        <v>263.573158336459</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_8</t>
+          <t>model_22_9_4</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9993022143613316</v>
+        <v>0.9621392795677541</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8246590559044804</v>
+        <v>0.7260729966271811</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9994726475029022</v>
+        <v>0.9798233658763748</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9984797193056787</v>
+        <v>-3.101063539038639</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9988454521090184</v>
+        <v>0.9348051983979399</v>
       </c>
       <c r="G3" t="n">
-        <v>0.004666095778782864</v>
+        <v>0.2531748118630154</v>
       </c>
       <c r="H3" t="n">
-        <v>1.172505700537549</v>
+        <v>1.831751132871912</v>
       </c>
       <c r="I3" t="n">
-        <v>0.003231650112926475</v>
+        <v>0.3207816586686704</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01627470318981997</v>
+        <v>0.7304488769579328</v>
       </c>
       <c r="K3" t="n">
-        <v>0.009753176651373225</v>
+        <v>0.5256151536950788</v>
       </c>
       <c r="L3" t="n">
-        <v>0.104680831374716</v>
+        <v>0.8838169699054732</v>
       </c>
       <c r="M3" t="n">
-        <v>0.06830882650714228</v>
+        <v>0.5031647959297385</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000293804479439</v>
+        <v>1.015941355971472</v>
       </c>
       <c r="O3" t="n">
-        <v>0.07121687467031575</v>
+        <v>0.5245855629871852</v>
       </c>
       <c r="P3" t="n">
-        <v>172.7348651572725</v>
+        <v>164.747350145749</v>
       </c>
       <c r="Q3" t="n">
-        <v>271.4638069715967</v>
+        <v>263.4762919600732</v>
       </c>
     </row>
     <row r="4">
@@ -632,1262 +632,1262 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9992835828187366</v>
+        <v>0.9650259674373621</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8246540163055898</v>
+        <v>0.7253821868143726</v>
       </c>
       <c r="D4" t="n">
-        <v>0.999604077183008</v>
+        <v>0.9812025724633183</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9988047785667777</v>
+        <v>-3.584113023690846</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9990990852188497</v>
+        <v>0.9308292473620939</v>
       </c>
       <c r="G4" t="n">
-        <v>0.004790684989905701</v>
+        <v>0.2338715167869714</v>
       </c>
       <c r="H4" t="n">
-        <v>1.172539400358537</v>
+        <v>1.836370581271049</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002426240556901766</v>
+        <v>0.2988541075272995</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01279492276950015</v>
+        <v>0.8164858159666919</v>
       </c>
       <c r="K4" t="n">
-        <v>0.007610581663200956</v>
+        <v>0.5576701651904158</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1044078660819232</v>
+        <v>0.9506014542912335</v>
       </c>
       <c r="M4" t="n">
-        <v>0.06921477436144469</v>
+        <v>0.4836026434863352</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000301649339479</v>
+        <v>1.014725908447426</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0721613906003464</v>
+        <v>0.504190609215028</v>
       </c>
       <c r="P4" t="n">
-        <v>172.6821637472555</v>
+        <v>164.905966775961</v>
       </c>
       <c r="Q4" t="n">
-        <v>271.4111055615797</v>
+        <v>263.6349085902852</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_9</t>
+          <t>model_22_9_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9992970249013539</v>
+        <v>0.9594413817691275</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8246487840606485</v>
+        <v>0.7249730128782157</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9994096254780376</v>
+        <v>0.9783803096665711</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9983240958019881</v>
+        <v>-2.891597214659197</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9987239880870183</v>
+        <v>0.9356961279665619</v>
       </c>
       <c r="G5" t="n">
-        <v>0.004700797721549778</v>
+        <v>0.2712156668651088</v>
       </c>
       <c r="H5" t="n">
-        <v>1.172574388404551</v>
+        <v>1.839106729266203</v>
       </c>
       <c r="I5" t="n">
-        <v>0.003617853145795889</v>
+        <v>0.3437243339284115</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01794066286515206</v>
+        <v>0.6931403983286707</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01077925800547398</v>
+        <v>0.5184322791309204</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1047600307603588</v>
+        <v>0.8507129866375532</v>
       </c>
       <c r="M5" t="n">
-        <v>0.06856236373951657</v>
+        <v>0.5207837044926702</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000295989515219</v>
+        <v>1.017077312939315</v>
       </c>
       <c r="O5" t="n">
-        <v>0.07148120550756665</v>
+        <v>0.5429545449638095</v>
       </c>
       <c r="P5" t="n">
-        <v>172.7200461133579</v>
+        <v>164.6096819118156</v>
       </c>
       <c r="Q5" t="n">
-        <v>271.4489879276822</v>
+        <v>263.3386237261398</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_10</t>
+          <t>model_22_9_7</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9992856604760116</v>
+        <v>0.965600729180671</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8246331427611555</v>
+        <v>0.7241745970971807</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9993493050148374</v>
+        <v>0.9813958847125686</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9981754049653579</v>
+        <v>-3.839708700256</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9986078965866246</v>
+        <v>0.9281965461908769</v>
       </c>
       <c r="G6" t="n">
-        <v>0.004776791686140896</v>
+        <v>0.2300280823629309</v>
       </c>
       <c r="H6" t="n">
-        <v>1.172678981846282</v>
+        <v>1.844445739270351</v>
       </c>
       <c r="I6" t="n">
-        <v>0.003987500834553703</v>
+        <v>0.2957806997638688</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01953240789108019</v>
+        <v>0.8620104885607881</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01175995436281695</v>
+        <v>0.5788955941623285</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1048161345257099</v>
+        <v>0.9792287930066698</v>
       </c>
       <c r="M6" t="n">
-        <v>0.06911433777546375</v>
+        <v>0.4796124293248987</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000300774536416</v>
+        <v>1.014483903502875</v>
       </c>
       <c r="O6" t="n">
-        <v>0.07205667822096787</v>
+        <v>0.5000305233758571</v>
       </c>
       <c r="P6" t="n">
-        <v>172.6879723063985</v>
+        <v>164.9391077605641</v>
       </c>
       <c r="Q6" t="n">
-        <v>271.4169141207227</v>
+        <v>263.6680495748884</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_5</t>
+          <t>model_22_9_8</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9992526054032083</v>
+        <v>0.965788134915167</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8246321030974951</v>
+        <v>0.7226524666408756</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9996703262716621</v>
+        <v>0.9813802593899181</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9989686062452884</v>
+        <v>-4.095482565739254</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9992269180130402</v>
+        <v>0.9253558482460164</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00499783111018241</v>
+        <v>0.2287748993534319</v>
       </c>
       <c r="H7" t="n">
-        <v>1.172685934081966</v>
+        <v>1.854624232640429</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002020261869006544</v>
+        <v>0.2960291216208711</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01104113687193799</v>
+        <v>0.907566898750236</v>
       </c>
       <c r="K7" t="n">
-        <v>0.006530699370472268</v>
+        <v>0.6017979399045992</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1044502710797123</v>
+        <v>1.004903918894234</v>
       </c>
       <c r="M7" t="n">
-        <v>0.07069534008817278</v>
+        <v>0.4783041912354856</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000314692461807</v>
+        <v>1.014404995825193</v>
       </c>
       <c r="O7" t="n">
-        <v>0.07370498707525489</v>
+        <v>0.4986665908825515</v>
       </c>
       <c r="P7" t="n">
-        <v>172.5975024772409</v>
+        <v>164.9500334622354</v>
       </c>
       <c r="Q7" t="n">
-        <v>271.3264442915651</v>
+        <v>263.6789752765596</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_11</t>
+          <t>model_22_9_2</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9992700263111398</v>
+        <v>0.9555721791582541</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8246139175862705</v>
+        <v>0.7223407251182778</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9992921071025808</v>
+        <v>0.9762026170419832</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9980346306822397</v>
+        <v>-2.717394005291568</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9984979537095418</v>
+        <v>0.9354731864355394</v>
       </c>
       <c r="G8" t="n">
-        <v>0.004881337418627552</v>
+        <v>0.2970890425400592</v>
       </c>
       <c r="H8" t="n">
-        <v>1.172807540679262</v>
+        <v>1.856708849637478</v>
       </c>
       <c r="I8" t="n">
-        <v>0.004338013329745002</v>
+        <v>0.3783467515182642</v>
       </c>
       <c r="J8" t="n">
-        <v>0.02103940569948898</v>
+        <v>0.662112705771905</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01268870951461699</v>
+        <v>0.520229683896543</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1048510718343708</v>
+        <v>0.8134510419185561</v>
       </c>
       <c r="M8" t="n">
-        <v>0.06986656867649614</v>
+        <v>0.5450587514571794</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000307357342678</v>
+        <v>1.018706450880735</v>
       </c>
       <c r="O8" t="n">
-        <v>0.07284093314878984</v>
+        <v>0.5682630309338725</v>
       </c>
       <c r="P8" t="n">
-        <v>172.6446720709417</v>
+        <v>164.4274467571605</v>
       </c>
       <c r="Q8" t="n">
-        <v>271.3736138852659</v>
+        <v>263.1563885714847</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_12</t>
+          <t>model_22_9_9</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9992515737377851</v>
+        <v>0.9656931067737206</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8245924221794796</v>
+        <v>0.7209446483149979</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9992382377989802</v>
+        <v>0.9812188756766806</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9979023461357146</v>
+        <v>-4.346523192133609</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9983945973720626</v>
+        <v>0.9224237227274594</v>
       </c>
       <c r="G9" t="n">
-        <v>0.005004729861617444</v>
+        <v>0.2294103529728489</v>
       </c>
       <c r="H9" t="n">
-        <v>1.17295128056345</v>
+        <v>1.866044421649353</v>
       </c>
       <c r="I9" t="n">
-        <v>0.004668127896419464</v>
+        <v>0.298594908109203</v>
       </c>
       <c r="J9" t="n">
-        <v>0.02245552032841158</v>
+        <v>0.9522802619729764</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01356182411241552</v>
+        <v>0.6254373953092898</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1048707279550798</v>
+        <v>1.027942167126939</v>
       </c>
       <c r="M9" t="n">
-        <v>0.07074411538507952</v>
+        <v>0.4789680082978914</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000315126847248</v>
+        <v>1.014445007674223</v>
       </c>
       <c r="O9" t="n">
-        <v>0.07375583883752972</v>
+        <v>0.4993586680115947</v>
       </c>
       <c r="P9" t="n">
-        <v>172.5947436827488</v>
+        <v>164.9444858892953</v>
       </c>
       <c r="Q9" t="n">
-        <v>271.323685497073</v>
+        <v>263.6734277036195</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_4</t>
+          <t>model_22_9_10</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.999200740906668</v>
+        <v>0.9653964076525908</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8245913995669902</v>
+        <v>0.7191435912447247</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9997348160488462</v>
+        <v>0.9809589663200771</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9991276653999993</v>
+        <v>-4.589345128807627</v>
       </c>
       <c r="F10" t="n">
-        <v>0.999351091281653</v>
+        <v>0.9194851971549221</v>
       </c>
       <c r="G10" t="n">
-        <v>0.005344649237361177</v>
+        <v>0.2313943813620174</v>
       </c>
       <c r="H10" t="n">
-        <v>1.172958118777875</v>
+        <v>1.878088098571376</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001625064355262949</v>
+        <v>0.3027271213417952</v>
       </c>
       <c r="J10" t="n">
-        <v>0.009338398330157772</v>
+        <v>0.9955297774354618</v>
       </c>
       <c r="K10" t="n">
-        <v>0.00548173134271036</v>
+        <v>0.6491284493886286</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1054523349176956</v>
+        <v>1.048625208201801</v>
       </c>
       <c r="M10" t="n">
-        <v>0.07310710798110658</v>
+        <v>0.4810346987089573</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000336530144561</v>
+        <v>1.014569933619962</v>
       </c>
       <c r="O10" t="n">
-        <v>0.07621942892043866</v>
+        <v>0.5015133417120987</v>
       </c>
       <c r="P10" t="n">
-        <v>172.4633187221996</v>
+        <v>164.9272634911607</v>
       </c>
       <c r="Q10" t="n">
-        <v>271.1922605365239</v>
+        <v>263.6562053054849</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_13</t>
+          <t>model_22_9_1</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9992314275829626</v>
+        <v>0.9502187141401647</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8245697299277943</v>
+        <v>0.717579672688297</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9991878373459163</v>
+        <v>0.9730701819645782</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9977787668802668</v>
+        <v>-2.588697654140949</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9982980150197444</v>
+        <v>0.9338062057151419</v>
       </c>
       <c r="G11" t="n">
-        <v>0.005139447291680198</v>
+        <v>0.332887687766463</v>
       </c>
       <c r="H11" t="n">
-        <v>1.173103023754957</v>
+        <v>1.88854602915939</v>
       </c>
       <c r="I11" t="n">
-        <v>0.004976985123287569</v>
+        <v>0.42814830482221</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0237784442531481</v>
+        <v>0.6391903334965927</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01437771468821783</v>
+        <v>0.5336692573905559</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1048772564411565</v>
+        <v>0.7706999442909026</v>
       </c>
       <c r="M11" t="n">
-        <v>0.07168993856658128</v>
+        <v>0.5769641997268661</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000323609438753</v>
+        <v>1.020960541414667</v>
       </c>
       <c r="O11" t="n">
-        <v>0.07474192766999191</v>
+        <v>0.6015267601897827</v>
       </c>
       <c r="P11" t="n">
-        <v>172.5416194721969</v>
+        <v>164.1999002397319</v>
       </c>
       <c r="Q11" t="n">
-        <v>271.2705612865211</v>
+        <v>262.9288420540561</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_14</t>
+          <t>model_22_9_11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9992104436903211</v>
+        <v>0.9649602924501538</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8245465365646288</v>
+        <v>0.717315356130257</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9991408960708289</v>
+        <v>0.9806354004059123</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9976639548145426</v>
+        <v>-4.821520224726365</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9982082423641405</v>
+        <v>0.9166015358153035</v>
       </c>
       <c r="G12" t="n">
-        <v>0.005279766678395613</v>
+        <v>0.2343106857288395</v>
       </c>
       <c r="H12" t="n">
-        <v>1.173258117881241</v>
+        <v>1.89031351520007</v>
       </c>
       <c r="I12" t="n">
-        <v>0.005264644284421423</v>
+        <v>0.3078713892111742</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02500751484468396</v>
+        <v>1.036882962153785</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01513607956455269</v>
+        <v>0.6723771756824793</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1048719098534811</v>
+        <v>1.067203058748082</v>
       </c>
       <c r="M12" t="n">
-        <v>0.07266200298915254</v>
+        <v>0.4840564902248904</v>
       </c>
       <c r="N12" t="n">
-        <v>1.00033244476197</v>
+        <v>1.014753561073619</v>
       </c>
       <c r="O12" t="n">
-        <v>0.07575537488748278</v>
+        <v>0.5046637771488358</v>
       </c>
       <c r="P12" t="n">
-        <v>172.4877467438763</v>
+        <v>164.9022146549421</v>
       </c>
       <c r="Q12" t="n">
-        <v>271.2166885582005</v>
+        <v>263.6311564692663</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_3</t>
+          <t>model_22_9_12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.999121522983198</v>
+        <v>0.9644320355387992</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8245259630301707</v>
+        <v>0.7155065418904155</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9997952662315652</v>
+        <v>0.9802739380772394</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9992757441270872</v>
+        <v>-5.041504277546478</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9994668419910463</v>
+        <v>0.9138151903155023</v>
       </c>
       <c r="G13" t="n">
-        <v>0.005874379856369908</v>
+        <v>0.2378431421274673</v>
       </c>
       <c r="H13" t="n">
-        <v>1.173395693200895</v>
+        <v>1.902409064350714</v>
       </c>
       <c r="I13" t="n">
-        <v>0.00125462173692785</v>
+        <v>0.3136181596897152</v>
       </c>
       <c r="J13" t="n">
-        <v>0.007753205976480074</v>
+        <v>1.076064775066826</v>
       </c>
       <c r="K13" t="n">
-        <v>0.004503913856703962</v>
+        <v>0.6948413197880932</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1065096773157954</v>
+        <v>1.083891765387889</v>
       </c>
       <c r="M13" t="n">
-        <v>0.07664450310602781</v>
+        <v>0.4876916465631407</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000369885059706</v>
+        <v>1.014975985036295</v>
       </c>
       <c r="O13" t="n">
-        <v>0.07990741827924519</v>
+        <v>0.5084536896182164</v>
       </c>
       <c r="P13" t="n">
-        <v>172.2743095617719</v>
+        <v>164.8722877785638</v>
       </c>
       <c r="Q13" t="n">
-        <v>271.0032513760961</v>
+        <v>263.601229592888</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_15</t>
+          <t>model_22_9_13</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9991892364037199</v>
+        <v>0.9638477197556443</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8245235024242135</v>
+        <v>0.713749053788986</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9990974088019752</v>
+        <v>0.9798934943145207</v>
       </c>
       <c r="E14" t="n">
-        <v>0.99755766664666</v>
+        <v>-5.248394788036978</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9981251233761257</v>
+        <v>0.9111547066194707</v>
       </c>
       <c r="G14" t="n">
-        <v>0.00542157990154797</v>
+        <v>0.2417504644599506</v>
       </c>
       <c r="H14" t="n">
-        <v>1.173412147284261</v>
+        <v>1.914161395377462</v>
       </c>
       <c r="I14" t="n">
-        <v>0.005531137072595335</v>
+        <v>0.3196667097346487</v>
       </c>
       <c r="J14" t="n">
-        <v>0.02614533655835962</v>
+        <v>1.112914470177003</v>
       </c>
       <c r="K14" t="n">
-        <v>0.01583823681547748</v>
+        <v>0.71629073772372</v>
       </c>
       <c r="L14" t="n">
-        <v>0.104863812468554</v>
+        <v>1.098887406931697</v>
       </c>
       <c r="M14" t="n">
-        <v>0.07363137851180004</v>
+        <v>0.4916812630759388</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000341374145802</v>
+        <v>1.015222012734466</v>
       </c>
       <c r="O14" t="n">
-        <v>0.07676601873301336</v>
+        <v>0.5126131523656091</v>
       </c>
       <c r="P14" t="n">
-        <v>172.4347360225127</v>
+        <v>164.8396984468197</v>
       </c>
       <c r="Q14" t="n">
-        <v>271.163677836837</v>
+        <v>263.5686402611439</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_16</t>
+          <t>model_22_9_14</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9991682835658534</v>
+        <v>0.9632339907429489</v>
       </c>
       <c r="C15" t="n">
-        <v>0.824500920481343</v>
+        <v>0.7120645095291303</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9990572429334754</v>
+        <v>0.9795073552189342</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9974596592715747</v>
+        <v>-5.441842541147055</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9980484559233578</v>
+        <v>0.9086371521564298</v>
       </c>
       <c r="G15" t="n">
-        <v>0.00556169162484033</v>
+        <v>0.2458544731938065</v>
       </c>
       <c r="H15" t="n">
-        <v>1.173563152840215</v>
+        <v>1.92542595059973</v>
       </c>
       <c r="I15" t="n">
-        <v>0.005777276105191877</v>
+        <v>0.3258058080004986</v>
       </c>
       <c r="J15" t="n">
-        <v>0.02719451184939984</v>
+        <v>1.147369848072078</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01648589397729586</v>
+        <v>0.7365878280362885</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1048507316679581</v>
+        <v>1.112365405936836</v>
       </c>
       <c r="M15" t="n">
-        <v>0.07457674989459068</v>
+        <v>0.4958371438222499</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000350196393325</v>
+        <v>1.015480424950337</v>
       </c>
       <c r="O15" t="n">
-        <v>0.07775163653275793</v>
+        <v>0.5169459575591497</v>
       </c>
       <c r="P15" t="n">
-        <v>172.383705935844</v>
+        <v>164.8060309809613</v>
       </c>
       <c r="Q15" t="n">
-        <v>271.1126477501683</v>
+        <v>263.5349727952856</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_17</t>
+          <t>model_22_9_15</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9991479120092559</v>
+        <v>0.9626111445877948</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8244791430011987</v>
+        <v>0.710466464996439</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9990202371652485</v>
+        <v>0.9791254746427016</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9973695557630717</v>
+        <v>-5.621773040875689</v>
       </c>
       <c r="F16" t="n">
-        <v>0.997977942674784</v>
+        <v>0.9062730806531232</v>
       </c>
       <c r="G16" t="n">
-        <v>0.005697916317610031</v>
+        <v>0.2500194483012647</v>
       </c>
       <c r="H16" t="n">
-        <v>1.173708778950216</v>
+        <v>1.936112081748156</v>
       </c>
       <c r="I16" t="n">
-        <v>0.00600404983951139</v>
+        <v>0.3318772014701258</v>
       </c>
       <c r="J16" t="n">
-        <v>0.02815907573732028</v>
+        <v>1.179417640115815</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01708156278841584</v>
+        <v>0.7556475042071169</v>
       </c>
       <c r="L16" t="n">
-        <v>0.104834205425449</v>
+        <v>1.124480193277549</v>
       </c>
       <c r="M16" t="n">
-        <v>0.07548454356760748</v>
+        <v>0.500019447923043</v>
       </c>
       <c r="N16" t="n">
-        <v>1.00035877389084</v>
+        <v>1.015742675963034</v>
       </c>
       <c r="O16" t="n">
-        <v>0.07869807686182702</v>
+        <v>0.5213063110040765</v>
       </c>
       <c r="P16" t="n">
-        <v>172.3353094585768</v>
+        <v>164.7724331418811</v>
       </c>
       <c r="Q16" t="n">
-        <v>271.064251272901</v>
+        <v>263.5013749562054</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_18</t>
+          <t>model_22_9_0</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9991283464423354</v>
+        <v>0.9430175572766977</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8244583915334749</v>
+        <v>0.7099619930677359</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9989862468614329</v>
+        <v>0.9687374260632217</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9972869068405356</v>
+        <v>-2.514659791523613</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9979132464988226</v>
+        <v>0.9303519392745019</v>
       </c>
       <c r="G17" t="n">
-        <v>0.005828751353698967</v>
+        <v>0.3810418568707455</v>
       </c>
       <c r="H17" t="n">
-        <v>1.173847544110437</v>
+        <v>1.939485487858272</v>
       </c>
       <c r="I17" t="n">
-        <v>0.00621234461344032</v>
+        <v>0.4970333634562547</v>
       </c>
       <c r="J17" t="n">
-        <v>0.02904383780018147</v>
+        <v>0.6260032972348049</v>
       </c>
       <c r="K17" t="n">
-        <v>0.01762809120681089</v>
+        <v>0.5615183303455297</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1048147913855147</v>
+        <v>0.7559734581783851</v>
       </c>
       <c r="M17" t="n">
-        <v>0.07634625959206494</v>
+        <v>0.6172858793709326</v>
       </c>
       <c r="N17" t="n">
-        <v>1.00036701202428</v>
+        <v>1.023992607462443</v>
       </c>
       <c r="O17" t="n">
-        <v>0.07959647792144371</v>
+        <v>0.6435650172136808</v>
       </c>
       <c r="P17" t="n">
-        <v>172.2899049551932</v>
+        <v>163.9296920986731</v>
       </c>
       <c r="Q17" t="n">
-        <v>271.0188467695174</v>
+        <v>262.6586339129973</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_19</t>
+          <t>model_22_9_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9991097440277837</v>
+        <v>0.9619937071473621</v>
       </c>
       <c r="C18" t="n">
-        <v>0.824438769060705</v>
+        <v>0.7089628939367404</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9989551323243803</v>
+        <v>0.9787543666539004</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9972112651490436</v>
+        <v>-5.7884474600862</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9978540332751772</v>
+        <v>0.9040660458513182</v>
       </c>
       <c r="G18" t="n">
-        <v>0.005953145785461971</v>
+        <v>0.2541482553084767</v>
       </c>
       <c r="H18" t="n">
-        <v>1.173978759676203</v>
+        <v>1.946166468347668</v>
       </c>
       <c r="I18" t="n">
-        <v>0.006403016503178492</v>
+        <v>0.3377773251212487</v>
       </c>
       <c r="J18" t="n">
-        <v>0.02985358700136879</v>
+        <v>1.209104364345031</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01812830175227364</v>
+        <v>0.7734411151707925</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1048102753826425</v>
+        <v>1.13537743951939</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0771566315067083</v>
+        <v>0.5041311885893163</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000374844619881</v>
+        <v>1.016002649622163</v>
       </c>
       <c r="O18" t="n">
-        <v>0.08044134904619457</v>
+        <v>0.5255930969829896</v>
       </c>
       <c r="P18" t="n">
-        <v>172.2476709914001</v>
+        <v>164.7396749998461</v>
       </c>
       <c r="Q18" t="n">
-        <v>270.9766128057243</v>
+        <v>263.4686168141703</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_2</t>
+          <t>model_22_9_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9990067510384396</v>
+        <v>0.9613920750474697</v>
       </c>
       <c r="C19" t="n">
-        <v>0.824428341293147</v>
+        <v>0.707557313417411</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9998487076553169</v>
+        <v>0.9783988277636332</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9994045431765586</v>
+        <v>-5.9423083405779</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9995678346705912</v>
+        <v>0.9020159583376773</v>
       </c>
       <c r="G19" t="n">
-        <v>0.006641860379445043</v>
+        <v>0.2581713719307184</v>
       </c>
       <c r="H19" t="n">
-        <v>1.174048490205879</v>
+        <v>1.955565591752527</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0009271292455634154</v>
+        <v>0.3434299208040729</v>
       </c>
       <c r="J19" t="n">
-        <v>0.006374403819019303</v>
+        <v>1.236508842791436</v>
       </c>
       <c r="K19" t="n">
-        <v>0.003650766532291359</v>
+        <v>0.7899693817977543</v>
       </c>
       <c r="L19" t="n">
-        <v>0.107613312845873</v>
+        <v>1.145179269769824</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0814976096547932</v>
+        <v>0.5081056700438585</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000418210089078</v>
+        <v>1.016255968401065</v>
       </c>
       <c r="O19" t="n">
-        <v>0.08496713162110701</v>
+        <v>0.5297367803413626</v>
       </c>
       <c r="P19" t="n">
-        <v>172.0287263542179</v>
+        <v>164.7082633645511</v>
       </c>
       <c r="Q19" t="n">
-        <v>270.7576681685421</v>
+        <v>263.4372051788753</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_20</t>
+          <t>model_22_9_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9990921976332694</v>
+        <v>0.9608136423671974</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8244203053780286</v>
+        <v>0.7062503681099417</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9989266892171915</v>
+        <v>0.9780615270718759</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9971421704620052</v>
+        <v>-6.083885826883237</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9977999372825901</v>
+        <v>0.900119482110661</v>
       </c>
       <c r="G20" t="n">
-        <v>0.006070478606373162</v>
+        <v>0.2620393539271372</v>
       </c>
       <c r="H20" t="n">
-        <v>1.174102226407277</v>
+        <v>1.964305141041503</v>
       </c>
       <c r="I20" t="n">
-        <v>0.006577317698421385</v>
+        <v>0.3487925533774267</v>
       </c>
       <c r="J20" t="n">
-        <v>0.03059325009631223</v>
+        <v>1.261725500590038</v>
       </c>
       <c r="K20" t="n">
-        <v>0.01858528389736681</v>
+        <v>0.805259199682725</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1048132784552226</v>
+        <v>1.15398463667687</v>
       </c>
       <c r="M20" t="n">
-        <v>0.07791327618816425</v>
+        <v>0.511897796368706</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000382232575465</v>
+        <v>1.016499519003285</v>
       </c>
       <c r="O20" t="n">
-        <v>0.08123020565821051</v>
+        <v>0.5336903453346425</v>
       </c>
       <c r="P20" t="n">
-        <v>172.2086356583633</v>
+        <v>164.6785211613441</v>
       </c>
       <c r="Q20" t="n">
-        <v>270.9375774726875</v>
+        <v>263.4074629756683</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_21</t>
+          <t>model_22_9_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9990757649619679</v>
+        <v>0.9602631850841181</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8244030811803688</v>
+        <v>0.7050404601248303</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9989007088867062</v>
+        <v>0.9777442751104343</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9970792226994398</v>
+        <v>-6.213833256932551</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9977506293440229</v>
+        <v>0.8983712833295545</v>
       </c>
       <c r="G21" t="n">
-        <v>0.006180363955031799</v>
+        <v>0.2657202643137105</v>
       </c>
       <c r="H21" t="n">
-        <v>1.174217404696339</v>
+        <v>1.972395801309057</v>
       </c>
       <c r="I21" t="n">
-        <v>0.006736526839193139</v>
+        <v>0.3538364377926167</v>
       </c>
       <c r="J21" t="n">
-        <v>0.03126710996708482</v>
+        <v>1.284870705105777</v>
       </c>
       <c r="K21" t="n">
-        <v>0.01900181840313898</v>
+        <v>0.8193535714491968</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1048193179598429</v>
+        <v>1.16190813609031</v>
       </c>
       <c r="M21" t="n">
-        <v>0.07861529084746681</v>
+        <v>0.5154806148767482</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000389151594961</v>
+        <v>1.016731290490898</v>
       </c>
       <c r="O21" t="n">
-        <v>0.08196210653493027</v>
+        <v>0.5374256918440289</v>
       </c>
       <c r="P21" t="n">
-        <v>172.1727562336933</v>
+        <v>164.6506223229559</v>
       </c>
       <c r="Q21" t="n">
-        <v>270.9016980480175</v>
+        <v>263.3795641372802</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_22</t>
+          <t>model_22_9_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9990604375871637</v>
+        <v>0.9597436486289496</v>
       </c>
       <c r="C22" t="n">
-        <v>0.824387053104399</v>
+        <v>0.7039245317115064</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9988770473006467</v>
+        <v>0.9774477373234268</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9970218563930537</v>
+        <v>-6.33283440787847</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9977056989286128</v>
+        <v>0.8967644116877798</v>
       </c>
       <c r="G22" t="n">
-        <v>0.006282858180923528</v>
+        <v>0.2691944069816685</v>
       </c>
       <c r="H22" t="n">
-        <v>1.174324584514151</v>
+        <v>1.979858019747333</v>
       </c>
       <c r="I22" t="n">
-        <v>0.00688152656458015</v>
+        <v>0.3585509943728344</v>
       </c>
       <c r="J22" t="n">
-        <v>0.03188121998835728</v>
+        <v>1.306066245296194</v>
       </c>
       <c r="K22" t="n">
-        <v>0.01938137327646872</v>
+        <v>0.8323085320320203</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1048231937010914</v>
+        <v>1.169037336505119</v>
       </c>
       <c r="M22" t="n">
-        <v>0.07926448246802302</v>
+        <v>0.5188394809395951</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000395605226457</v>
+        <v>1.016950042682548</v>
       </c>
       <c r="O22" t="n">
-        <v>0.08263893558678548</v>
+        <v>0.5409275517889824</v>
       </c>
       <c r="P22" t="n">
-        <v>172.1398605553777</v>
+        <v>164.6246429157399</v>
       </c>
       <c r="Q22" t="n">
-        <v>270.8688023697019</v>
+        <v>263.3535847300641</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_23</t>
+          <t>model_22_9_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9990462187796326</v>
+        <v>0.9592564930204938</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8243722097907494</v>
+        <v>0.702898407792296</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9988554953623564</v>
+        <v>0.9771720808084309</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9969697175243784</v>
+        <v>-6.441605638046064</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9976648458837065</v>
+        <v>0.8952911206745179</v>
       </c>
       <c r="G23" t="n">
-        <v>0.00637793941235501</v>
+        <v>0.2724520187785575</v>
       </c>
       <c r="H23" t="n">
-        <v>1.174423841820873</v>
+        <v>1.986719715119958</v>
       </c>
       <c r="I23" t="n">
-        <v>0.007013598232379112</v>
+        <v>0.3629335664887497</v>
       </c>
       <c r="J23" t="n">
-        <v>0.03243936995073987</v>
+        <v>1.325439713218585</v>
       </c>
       <c r="K23" t="n">
-        <v>0.01972648409155949</v>
+        <v>0.8441865355437106</v>
       </c>
       <c r="L23" t="n">
-        <v>0.1048254905479896</v>
+        <v>1.175450578968945</v>
       </c>
       <c r="M23" t="n">
-        <v>0.07986200230619697</v>
+        <v>0.5219693657472222</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000401592092786</v>
+        <v>1.017155160833476</v>
       </c>
       <c r="O23" t="n">
-        <v>0.08326189308150707</v>
+        <v>0.544190682272625</v>
       </c>
       <c r="P23" t="n">
-        <v>172.1098204198267</v>
+        <v>164.6005855165184</v>
       </c>
       <c r="Q23" t="n">
-        <v>270.838762234151</v>
+        <v>263.3295273308427</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_24</t>
+          <t>model_22_9_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9990330828960539</v>
+        <v>0.9588023797086571</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8243585338861715</v>
+        <v>0.7019574177323982</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9988359093671787</v>
+        <v>0.9769170255462688</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9969223804438441</v>
+        <v>-6.540834816953185</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9976277483884548</v>
+        <v>0.8939435297830888</v>
       </c>
       <c r="G24" t="n">
-        <v>0.006465779126331395</v>
+        <v>0.2754886765858088</v>
       </c>
       <c r="H24" t="n">
-        <v>1.174515292657757</v>
+        <v>1.993012119983356</v>
       </c>
       <c r="I24" t="n">
-        <v>0.007133622473993855</v>
+        <v>0.366988606073014</v>
       </c>
       <c r="J24" t="n">
-        <v>0.03294611646041041</v>
+        <v>1.343113626730092</v>
       </c>
       <c r="K24" t="n">
-        <v>0.02003986946720213</v>
+        <v>0.8550511164015531</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1048221504072463</v>
+        <v>1.181219507430175</v>
       </c>
       <c r="M24" t="n">
-        <v>0.08041006856315566</v>
+        <v>0.5248701521193683</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000407122991135</v>
+        <v>1.01734636643846</v>
       </c>
       <c r="O24" t="n">
-        <v>0.08383329165367806</v>
+        <v>0.5472149611260889</v>
       </c>
       <c r="P24" t="n">
-        <v>172.0824635190117</v>
+        <v>164.5784175051116</v>
       </c>
       <c r="Q24" t="n">
-        <v>270.8114053333359</v>
+        <v>263.3073593194358</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_1</t>
+          <t>model_22_9_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9988461095645795</v>
+        <v>0.9583808423373047</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8242892114978747</v>
+        <v>0.7010963973124276</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9998912783851999</v>
+        <v>0.9766818110363783</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9995030688944565</v>
+        <v>-6.631250255646643</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9996457028195209</v>
+        <v>0.8927128609131889</v>
       </c>
       <c r="G25" t="n">
-        <v>0.007716070654833366</v>
+        <v>0.2783074989290437</v>
       </c>
       <c r="H25" t="n">
-        <v>1.174978851787498</v>
+        <v>1.998769767496334</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0006662530673127682</v>
+        <v>0.3707282040735187</v>
       </c>
       <c r="J25" t="n">
-        <v>0.005319679634634367</v>
+        <v>1.359217706811908</v>
       </c>
       <c r="K25" t="n">
-        <v>0.002992966350973568</v>
+        <v>0.8649730456245073</v>
       </c>
       <c r="L25" t="n">
-        <v>0.1087622197507223</v>
+        <v>1.186411026166021</v>
       </c>
       <c r="M25" t="n">
-        <v>0.08784116719871933</v>
+        <v>0.5275485749474106</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000485848604387</v>
+        <v>1.017523855857977</v>
       </c>
       <c r="O25" t="n">
-        <v>0.09158074754265248</v>
+        <v>0.5500074099590205</v>
       </c>
       <c r="P25" t="n">
-        <v>171.7289000541111</v>
+        <v>164.5580573306526</v>
       </c>
       <c r="Q25" t="n">
-        <v>270.4578418684354</v>
+        <v>263.2869991449768</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_0</t>
+          <t>model_22_9_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9986265864257087</v>
+        <v>0.9579910669905393</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8240968525628367</v>
+        <v>0.7003101112713841</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999180037759715</v>
+        <v>0.97646553231074</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9995568912513313</v>
+        <v>-6.713526745934009</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9996894990085955</v>
+        <v>0.8915907885790988</v>
       </c>
       <c r="G26" t="n">
-        <v>0.009184022895273961</v>
+        <v>0.2809139284676142</v>
       </c>
       <c r="H26" t="n">
-        <v>1.176265156871829</v>
+        <v>2.004027665873306</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0005024781490552967</v>
+        <v>0.3741667482786586</v>
       </c>
       <c r="J26" t="n">
-        <v>0.004743507822163075</v>
+        <v>1.373872142023252</v>
       </c>
       <c r="K26" t="n">
-        <v>0.002622992985609186</v>
+        <v>0.8740194451509556</v>
       </c>
       <c r="L26" t="n">
-        <v>0.1099381869926892</v>
+        <v>1.191082459858193</v>
       </c>
       <c r="M26" t="n">
-        <v>0.09583330785939699</v>
+        <v>0.530013139900903</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000578279399702</v>
+        <v>1.017687971793457</v>
       </c>
       <c r="O26" t="n">
-        <v>0.09991313017726711</v>
+        <v>0.5525768965449359</v>
       </c>
       <c r="P26" t="n">
-        <v>171.3805798929115</v>
+        <v>164.5394139219098</v>
       </c>
       <c r="Q26" t="n">
-        <v>270.1095217072357</v>
+        <v>263.268355736234</v>
       </c>
     </row>
   </sheetData>

--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_22_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_22_9.xlsx
@@ -518,1321 +518,1321 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_5</t>
+          <t>model_22_9_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9639292969404648</v>
+        <v>0.9979910650806693</v>
       </c>
       <c r="C2" t="n">
-        <v>0.726096943764369</v>
+        <v>0.7654421904214924</v>
       </c>
       <c r="D2" t="n">
-        <v>0.980715681804563</v>
+        <v>0.999584592282676</v>
       </c>
       <c r="E2" t="n">
-        <v>-3.335141908536895</v>
+        <v>0.9999999999845474</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9330993558877345</v>
+        <v>0.9997186226767236</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2412049574494274</v>
+        <v>0.01343375705585977</v>
       </c>
       <c r="H2" t="n">
-        <v>1.831590998255271</v>
+        <v>1.568489152690884</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3065950217030166</v>
+        <v>0.003463621243296469</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7721410576550958</v>
+        <v>8.564685812310269e-12</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5393680396790561</v>
+        <v>0.00173181062504838</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9186304096910466</v>
+        <v>0.2005188846762651</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4911262133600969</v>
+        <v>0.1159040855874363</v>
       </c>
       <c r="N2" t="n">
-        <v>1.01518766444612</v>
+        <v>1.000845867334455</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5120344730342524</v>
+        <v>0.1208383624654267</v>
       </c>
       <c r="P2" t="n">
-        <v>164.8442165221348</v>
+        <v>170.6199691131505</v>
       </c>
       <c r="Q2" t="n">
-        <v>263.573158336459</v>
+        <v>269.3489109274747</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_4</t>
+          <t>model_22_9_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9621392795677541</v>
+        <v>0.9979910650806693</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7260729966271811</v>
+        <v>0.7654421904214924</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9798233658763748</v>
+        <v>0.999584592282676</v>
       </c>
       <c r="E3" t="n">
-        <v>-3.101063539038639</v>
+        <v>0.9999999999845474</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9348051983979399</v>
+        <v>0.9997186226767236</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2531748118630154</v>
+        <v>0.01343375705585977</v>
       </c>
       <c r="H3" t="n">
-        <v>1.831751132871912</v>
+        <v>1.568489152690884</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3207816586686704</v>
+        <v>0.003463621243296469</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7304488769579328</v>
+        <v>8.564685812310269e-12</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5256151536950788</v>
+        <v>0.00173181062504838</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8838169699054732</v>
+        <v>0.2005188846762651</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5031647959297385</v>
+        <v>0.1159040855874363</v>
       </c>
       <c r="N3" t="n">
-        <v>1.015941355971472</v>
+        <v>1.000845867334455</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5245855629871852</v>
+        <v>0.1208383624654267</v>
       </c>
       <c r="P3" t="n">
-        <v>164.747350145749</v>
+        <v>170.6199691131505</v>
       </c>
       <c r="Q3" t="n">
-        <v>263.4762919600732</v>
+        <v>269.3489109274747</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_6</t>
+          <t>model_22_9_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9650259674373621</v>
+        <v>0.9979910650806693</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7253821868143726</v>
+        <v>0.7654421904214924</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9812025724633183</v>
+        <v>0.999584592282676</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.584113023690846</v>
+        <v>0.9999999999845474</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9308292473620939</v>
+        <v>0.9997186226767236</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2338715167869714</v>
+        <v>0.01343375705585977</v>
       </c>
       <c r="H4" t="n">
-        <v>1.836370581271049</v>
+        <v>1.568489152690884</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2988541075272995</v>
+        <v>0.003463621243296469</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8164858159666919</v>
+        <v>8.564685812310269e-12</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5576701651904158</v>
+        <v>0.00173181062504838</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9506014542912335</v>
+        <v>0.2005188846762651</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4836026434863352</v>
+        <v>0.1159040855874363</v>
       </c>
       <c r="N4" t="n">
-        <v>1.014725908447426</v>
+        <v>1.000845867334455</v>
       </c>
       <c r="O4" t="n">
-        <v>0.504190609215028</v>
+        <v>0.1208383624654267</v>
       </c>
       <c r="P4" t="n">
-        <v>164.905966775961</v>
+        <v>170.6199691131505</v>
       </c>
       <c r="Q4" t="n">
-        <v>263.6349085902852</v>
+        <v>269.3489109274747</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_3</t>
+          <t>model_22_9_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9594413817691275</v>
+        <v>0.9979910650806693</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7249730128782157</v>
+        <v>0.7654421904214924</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9783803096665711</v>
+        <v>0.999584592282676</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.891597214659197</v>
+        <v>0.9999999999845474</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9356961279665619</v>
+        <v>0.9997186226767236</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2712156668651088</v>
+        <v>0.01343375705585977</v>
       </c>
       <c r="H5" t="n">
-        <v>1.839106729266203</v>
+        <v>1.568489152690884</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3437243339284115</v>
+        <v>0.003463621243296469</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6931403983286707</v>
+        <v>8.564685812310269e-12</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5184322791309204</v>
+        <v>0.00173181062504838</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8507129866375532</v>
+        <v>0.2005188846762651</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5207837044926702</v>
+        <v>0.1159040855874363</v>
       </c>
       <c r="N5" t="n">
-        <v>1.017077312939315</v>
+        <v>1.000845867334455</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5429545449638095</v>
+        <v>0.1208383624654267</v>
       </c>
       <c r="P5" t="n">
-        <v>164.6096819118156</v>
+        <v>170.6199691131505</v>
       </c>
       <c r="Q5" t="n">
-        <v>263.3386237261398</v>
+        <v>269.3489109274747</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_7</t>
+          <t>model_22_9_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.965600729180671</v>
+        <v>0.9979910650806693</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7241745970971807</v>
+        <v>0.7654421904214924</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9813958847125686</v>
+        <v>0.999584592282676</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.839708700256</v>
+        <v>0.9999999999845474</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9281965461908769</v>
+        <v>0.9997186226767236</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2300280823629309</v>
+        <v>0.01343375705585977</v>
       </c>
       <c r="H6" t="n">
-        <v>1.844445739270351</v>
+        <v>1.568489152690884</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2957806997638688</v>
+        <v>0.003463621243296469</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8620104885607881</v>
+        <v>8.564685812310269e-12</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5788955941623285</v>
+        <v>0.00173181062504838</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9792287930066698</v>
+        <v>0.2005188846762651</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4796124293248987</v>
+        <v>0.1159040855874363</v>
       </c>
       <c r="N6" t="n">
-        <v>1.014483903502875</v>
+        <v>1.000845867334455</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5000305233758571</v>
+        <v>0.1208383624654267</v>
       </c>
       <c r="P6" t="n">
-        <v>164.9391077605641</v>
+        <v>170.6199691131505</v>
       </c>
       <c r="Q6" t="n">
-        <v>263.6680495748884</v>
+        <v>269.3489109274747</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_8</t>
+          <t>model_22_9_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.965788134915167</v>
+        <v>0.9979910650806693</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7226524666408756</v>
+        <v>0.7654421904214924</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9813802593899181</v>
+        <v>0.999584592282676</v>
       </c>
       <c r="E7" t="n">
-        <v>-4.095482565739254</v>
+        <v>0.9999999999845474</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9253558482460164</v>
+        <v>0.9997186226767236</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2287748993534319</v>
+        <v>0.01343375705585977</v>
       </c>
       <c r="H7" t="n">
-        <v>1.854624232640429</v>
+        <v>1.568489152690884</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2960291216208711</v>
+        <v>0.003463621243296469</v>
       </c>
       <c r="J7" t="n">
-        <v>0.907566898750236</v>
+        <v>8.564685812310269e-12</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6017979399045992</v>
+        <v>0.00173181062504838</v>
       </c>
       <c r="L7" t="n">
-        <v>1.004903918894234</v>
+        <v>0.2005188846762651</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4783041912354856</v>
+        <v>0.1159040855874363</v>
       </c>
       <c r="N7" t="n">
-        <v>1.014404995825193</v>
+        <v>1.000845867334455</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4986665908825515</v>
+        <v>0.1208383624654267</v>
       </c>
       <c r="P7" t="n">
-        <v>164.9500334622354</v>
+        <v>170.6199691131505</v>
       </c>
       <c r="Q7" t="n">
-        <v>263.6789752765596</v>
+        <v>269.3489109274747</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_2</t>
+          <t>model_22_9_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9555721791582541</v>
+        <v>0.9979910650806693</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7223407251182778</v>
+        <v>0.7654421904214924</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9762026170419832</v>
+        <v>0.999584592282676</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.717394005291568</v>
+        <v>0.9999999999845474</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9354731864355394</v>
+        <v>0.9997186226767236</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2970890425400592</v>
+        <v>0.01343375705585977</v>
       </c>
       <c r="H8" t="n">
-        <v>1.856708849637478</v>
+        <v>1.568489152690884</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3783467515182642</v>
+        <v>0.003463621243296469</v>
       </c>
       <c r="J8" t="n">
-        <v>0.662112705771905</v>
+        <v>8.564685812310269e-12</v>
       </c>
       <c r="K8" t="n">
-        <v>0.520229683896543</v>
+        <v>0.00173181062504838</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8134510419185561</v>
+        <v>0.2005188846762651</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5450587514571794</v>
+        <v>0.1159040855874363</v>
       </c>
       <c r="N8" t="n">
-        <v>1.018706450880735</v>
+        <v>1.000845867334455</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5682630309338725</v>
+        <v>0.1208383624654267</v>
       </c>
       <c r="P8" t="n">
-        <v>164.4274467571605</v>
+        <v>170.6199691131505</v>
       </c>
       <c r="Q8" t="n">
-        <v>263.1563885714847</v>
+        <v>269.3489109274747</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_9</t>
+          <t>model_22_9_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9656931067737206</v>
+        <v>0.9979910650806693</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7209446483149979</v>
+        <v>0.7654421904214924</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9812188756766806</v>
+        <v>0.999584592282676</v>
       </c>
       <c r="E9" t="n">
-        <v>-4.346523192133609</v>
+        <v>0.9999999999845474</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9224237227274594</v>
+        <v>0.9997186226767236</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2294103529728489</v>
+        <v>0.01343375705585977</v>
       </c>
       <c r="H9" t="n">
-        <v>1.866044421649353</v>
+        <v>1.568489152690884</v>
       </c>
       <c r="I9" t="n">
-        <v>0.298594908109203</v>
+        <v>0.003463621243296469</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9522802619729764</v>
+        <v>8.564685812310269e-12</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6254373953092898</v>
+        <v>0.00173181062504838</v>
       </c>
       <c r="L9" t="n">
-        <v>1.027942167126939</v>
+        <v>0.2005188846762651</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4789680082978914</v>
+        <v>0.1159040855874363</v>
       </c>
       <c r="N9" t="n">
-        <v>1.014445007674223</v>
+        <v>1.000845867334455</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4993586680115947</v>
+        <v>0.1208383624654267</v>
       </c>
       <c r="P9" t="n">
-        <v>164.9444858892953</v>
+        <v>170.6199691131505</v>
       </c>
       <c r="Q9" t="n">
-        <v>263.6734277036195</v>
+        <v>269.3489109274747</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_10</t>
+          <t>model_22_9_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9653964076525908</v>
+        <v>0.9979910650806693</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7191435912447247</v>
+        <v>0.7654421904214924</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9809589663200771</v>
+        <v>0.999584592282676</v>
       </c>
       <c r="E10" t="n">
-        <v>-4.589345128807627</v>
+        <v>0.9999999999845474</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9194851971549221</v>
+        <v>0.9997186226767236</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2313943813620174</v>
+        <v>0.01343375705585977</v>
       </c>
       <c r="H10" t="n">
-        <v>1.878088098571376</v>
+        <v>1.568489152690884</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3027271213417952</v>
+        <v>0.003463621243296469</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9955297774354618</v>
+        <v>8.564685812310269e-12</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6491284493886286</v>
+        <v>0.00173181062504838</v>
       </c>
       <c r="L10" t="n">
-        <v>1.048625208201801</v>
+        <v>0.2005188846762651</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4810346987089573</v>
+        <v>0.1159040855874363</v>
       </c>
       <c r="N10" t="n">
-        <v>1.014569933619962</v>
+        <v>1.000845867334455</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5015133417120987</v>
+        <v>0.1208383624654267</v>
       </c>
       <c r="P10" t="n">
-        <v>164.9272634911607</v>
+        <v>170.6199691131505</v>
       </c>
       <c r="Q10" t="n">
-        <v>263.6562053054849</v>
+        <v>269.3489109274747</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_1</t>
+          <t>model_22_9_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9502187141401647</v>
+        <v>0.9979910650806693</v>
       </c>
       <c r="C11" t="n">
-        <v>0.717579672688297</v>
+        <v>0.7654421904214924</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9730701819645782</v>
+        <v>0.999584592282676</v>
       </c>
       <c r="E11" t="n">
-        <v>-2.588697654140949</v>
+        <v>0.9999999999845474</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9338062057151419</v>
+        <v>0.9997186226767236</v>
       </c>
       <c r="G11" t="n">
-        <v>0.332887687766463</v>
+        <v>0.01343375705585977</v>
       </c>
       <c r="H11" t="n">
-        <v>1.88854602915939</v>
+        <v>1.568489152690884</v>
       </c>
       <c r="I11" t="n">
-        <v>0.42814830482221</v>
+        <v>0.003463621243296469</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6391903334965927</v>
+        <v>8.564685812310269e-12</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5336692573905559</v>
+        <v>0.00173181062504838</v>
       </c>
       <c r="L11" t="n">
-        <v>0.7706999442909026</v>
+        <v>0.2005188846762651</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5769641997268661</v>
+        <v>0.1159040855874363</v>
       </c>
       <c r="N11" t="n">
-        <v>1.020960541414667</v>
+        <v>1.000845867334455</v>
       </c>
       <c r="O11" t="n">
-        <v>0.6015267601897827</v>
+        <v>0.1208383624654267</v>
       </c>
       <c r="P11" t="n">
-        <v>164.1999002397319</v>
+        <v>170.6199691131505</v>
       </c>
       <c r="Q11" t="n">
-        <v>262.9288420540561</v>
+        <v>269.3489109274747</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_11</t>
+          <t>model_22_9_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9649602924501538</v>
+        <v>0.9979910650806693</v>
       </c>
       <c r="C12" t="n">
-        <v>0.717315356130257</v>
+        <v>0.7654421904214924</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9806354004059123</v>
+        <v>0.999584592282676</v>
       </c>
       <c r="E12" t="n">
-        <v>-4.821520224726365</v>
+        <v>0.9999999999845474</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9166015358153035</v>
+        <v>0.9997186226767236</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2343106857288395</v>
+        <v>0.01343375705585977</v>
       </c>
       <c r="H12" t="n">
-        <v>1.89031351520007</v>
+        <v>1.568489152690884</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3078713892111742</v>
+        <v>0.003463621243296469</v>
       </c>
       <c r="J12" t="n">
-        <v>1.036882962153785</v>
+        <v>8.564685812310269e-12</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6723771756824793</v>
+        <v>0.00173181062504838</v>
       </c>
       <c r="L12" t="n">
-        <v>1.067203058748082</v>
+        <v>0.2005188846762651</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4840564902248904</v>
+        <v>0.1159040855874363</v>
       </c>
       <c r="N12" t="n">
-        <v>1.014753561073619</v>
+        <v>1.000845867334455</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5046637771488358</v>
+        <v>0.1208383624654267</v>
       </c>
       <c r="P12" t="n">
-        <v>164.9022146549421</v>
+        <v>170.6199691131505</v>
       </c>
       <c r="Q12" t="n">
-        <v>263.6311564692663</v>
+        <v>269.3489109274747</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_12</t>
+          <t>model_22_9_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9644320355387992</v>
+        <v>0.9979910650806693</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7155065418904155</v>
+        <v>0.7654421904214924</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9802739380772394</v>
+        <v>0.999584592282676</v>
       </c>
       <c r="E13" t="n">
-        <v>-5.041504277546478</v>
+        <v>0.9999999999845474</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9138151903155023</v>
+        <v>0.9997186226767236</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2378431421274673</v>
+        <v>0.01343375705585977</v>
       </c>
       <c r="H13" t="n">
-        <v>1.902409064350714</v>
+        <v>1.568489152690884</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3136181596897152</v>
+        <v>0.003463621243296469</v>
       </c>
       <c r="J13" t="n">
-        <v>1.076064775066826</v>
+        <v>8.564685812310269e-12</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6948413197880932</v>
+        <v>0.00173181062504838</v>
       </c>
       <c r="L13" t="n">
-        <v>1.083891765387889</v>
+        <v>0.2005188846762651</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4876916465631407</v>
+        <v>0.1159040855874363</v>
       </c>
       <c r="N13" t="n">
-        <v>1.014975985036295</v>
+        <v>1.000845867334455</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5084536896182164</v>
+        <v>0.1208383624654267</v>
       </c>
       <c r="P13" t="n">
-        <v>164.8722877785638</v>
+        <v>170.6199691131505</v>
       </c>
       <c r="Q13" t="n">
-        <v>263.601229592888</v>
+        <v>269.3489109274747</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_13</t>
+          <t>model_22_9_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9638477197556443</v>
+        <v>0.9979910650806693</v>
       </c>
       <c r="C14" t="n">
-        <v>0.713749053788986</v>
+        <v>0.7654421904214924</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9798934943145207</v>
+        <v>0.999584592282676</v>
       </c>
       <c r="E14" t="n">
-        <v>-5.248394788036978</v>
+        <v>0.9999999999845474</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9111547066194707</v>
+        <v>0.9997186226767236</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2417504644599506</v>
+        <v>0.01343375705585977</v>
       </c>
       <c r="H14" t="n">
-        <v>1.914161395377462</v>
+        <v>1.568489152690884</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3196667097346487</v>
+        <v>0.003463621243296469</v>
       </c>
       <c r="J14" t="n">
-        <v>1.112914470177003</v>
+        <v>8.564685812310269e-12</v>
       </c>
       <c r="K14" t="n">
-        <v>0.71629073772372</v>
+        <v>0.00173181062504838</v>
       </c>
       <c r="L14" t="n">
-        <v>1.098887406931697</v>
+        <v>0.2005188846762651</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4916812630759388</v>
+        <v>0.1159040855874363</v>
       </c>
       <c r="N14" t="n">
-        <v>1.015222012734466</v>
+        <v>1.000845867334455</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5126131523656091</v>
+        <v>0.1208383624654267</v>
       </c>
       <c r="P14" t="n">
-        <v>164.8396984468197</v>
+        <v>170.6199691131505</v>
       </c>
       <c r="Q14" t="n">
-        <v>263.5686402611439</v>
+        <v>269.3489109274747</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_14</t>
+          <t>model_22_9_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9632339907429489</v>
+        <v>0.9979910650806693</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7120645095291303</v>
+        <v>0.7654421904214924</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9795073552189342</v>
+        <v>0.999584592282676</v>
       </c>
       <c r="E15" t="n">
-        <v>-5.441842541147055</v>
+        <v>0.9999999999845474</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9086371521564298</v>
+        <v>0.9997186226767236</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2458544731938065</v>
+        <v>0.01343375705585977</v>
       </c>
       <c r="H15" t="n">
-        <v>1.92542595059973</v>
+        <v>1.568489152690884</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3258058080004986</v>
+        <v>0.003463621243296469</v>
       </c>
       <c r="J15" t="n">
-        <v>1.147369848072078</v>
+        <v>8.564685812310269e-12</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7365878280362885</v>
+        <v>0.00173181062504838</v>
       </c>
       <c r="L15" t="n">
-        <v>1.112365405936836</v>
+        <v>0.2005188846762651</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4958371438222499</v>
+        <v>0.1159040855874363</v>
       </c>
       <c r="N15" t="n">
-        <v>1.015480424950337</v>
+        <v>1.000845867334455</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5169459575591497</v>
+        <v>0.1208383624654267</v>
       </c>
       <c r="P15" t="n">
-        <v>164.8060309809613</v>
+        <v>170.6199691131505</v>
       </c>
       <c r="Q15" t="n">
-        <v>263.5349727952856</v>
+        <v>269.3489109274747</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_15</t>
+          <t>model_22_9_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9626111445877948</v>
+        <v>0.9979910650806693</v>
       </c>
       <c r="C16" t="n">
-        <v>0.710466464996439</v>
+        <v>0.7654421904214924</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9791254746427016</v>
+        <v>0.999584592282676</v>
       </c>
       <c r="E16" t="n">
-        <v>-5.621773040875689</v>
+        <v>0.9999999999845474</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9062730806531232</v>
+        <v>0.9997186226767236</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2500194483012647</v>
+        <v>0.01343375705585977</v>
       </c>
       <c r="H16" t="n">
-        <v>1.936112081748156</v>
+        <v>1.568489152690884</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3318772014701258</v>
+        <v>0.003463621243296469</v>
       </c>
       <c r="J16" t="n">
-        <v>1.179417640115815</v>
+        <v>8.564685812310269e-12</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7556475042071169</v>
+        <v>0.00173181062504838</v>
       </c>
       <c r="L16" t="n">
-        <v>1.124480193277549</v>
+        <v>0.2005188846762651</v>
       </c>
       <c r="M16" t="n">
-        <v>0.500019447923043</v>
+        <v>0.1159040855874363</v>
       </c>
       <c r="N16" t="n">
-        <v>1.015742675963034</v>
+        <v>1.000845867334455</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5213063110040765</v>
+        <v>0.1208383624654267</v>
       </c>
       <c r="P16" t="n">
-        <v>164.7724331418811</v>
+        <v>170.6199691131505</v>
       </c>
       <c r="Q16" t="n">
-        <v>263.5013749562054</v>
+        <v>269.3489109274747</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_0</t>
+          <t>model_22_9_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9430175572766977</v>
+        <v>0.9979910650806693</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7099619930677359</v>
+        <v>0.7654421904214924</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9687374260632217</v>
+        <v>0.999584592282676</v>
       </c>
       <c r="E17" t="n">
-        <v>-2.514659791523613</v>
+        <v>0.9999999999845474</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9303519392745019</v>
+        <v>0.9997186226767236</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3810418568707455</v>
+        <v>0.01343375705585977</v>
       </c>
       <c r="H17" t="n">
-        <v>1.939485487858272</v>
+        <v>1.568489152690884</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4970333634562547</v>
+        <v>0.003463621243296469</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6260032972348049</v>
+        <v>8.564685812310269e-12</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5615183303455297</v>
+        <v>0.00173181062504838</v>
       </c>
       <c r="L17" t="n">
-        <v>0.7559734581783851</v>
+        <v>0.2005188846762651</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6172858793709326</v>
+        <v>0.1159040855874363</v>
       </c>
       <c r="N17" t="n">
-        <v>1.023992607462443</v>
+        <v>1.000845867334455</v>
       </c>
       <c r="O17" t="n">
-        <v>0.6435650172136808</v>
+        <v>0.1208383624654267</v>
       </c>
       <c r="P17" t="n">
-        <v>163.9296920986731</v>
+        <v>170.6199691131505</v>
       </c>
       <c r="Q17" t="n">
-        <v>262.6586339129973</v>
+        <v>269.3489109274747</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_16</t>
+          <t>model_22_9_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9619937071473621</v>
+        <v>0.9979910650806693</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7089628939367404</v>
+        <v>0.7654421904214924</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9787543666539004</v>
+        <v>0.999584592282676</v>
       </c>
       <c r="E18" t="n">
-        <v>-5.7884474600862</v>
+        <v>0.9999999999845474</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9040660458513182</v>
+        <v>0.9997186226767236</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2541482553084767</v>
+        <v>0.01343375705585977</v>
       </c>
       <c r="H18" t="n">
-        <v>1.946166468347668</v>
+        <v>1.568489152690884</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3377773251212487</v>
+        <v>0.003463621243296469</v>
       </c>
       <c r="J18" t="n">
-        <v>1.209104364345031</v>
+        <v>8.564685812310269e-12</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7734411151707925</v>
+        <v>0.00173181062504838</v>
       </c>
       <c r="L18" t="n">
-        <v>1.13537743951939</v>
+        <v>0.2005188846762651</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5041311885893163</v>
+        <v>0.1159040855874363</v>
       </c>
       <c r="N18" t="n">
-        <v>1.016002649622163</v>
+        <v>1.000845867334455</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5255930969829896</v>
+        <v>0.1208383624654267</v>
       </c>
       <c r="P18" t="n">
-        <v>164.7396749998461</v>
+        <v>170.6199691131505</v>
       </c>
       <c r="Q18" t="n">
-        <v>263.4686168141703</v>
+        <v>269.3489109274747</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_17</t>
+          <t>model_22_9_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9613920750474697</v>
+        <v>0.9979910650806693</v>
       </c>
       <c r="C19" t="n">
-        <v>0.707557313417411</v>
+        <v>0.7654421904214924</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9783988277636332</v>
+        <v>0.999584592282676</v>
       </c>
       <c r="E19" t="n">
-        <v>-5.9423083405779</v>
+        <v>0.9999999999845474</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9020159583376773</v>
+        <v>0.9997186226767236</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2581713719307184</v>
+        <v>0.01343375705585977</v>
       </c>
       <c r="H19" t="n">
-        <v>1.955565591752527</v>
+        <v>1.568489152690884</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3434299208040729</v>
+        <v>0.003463621243296469</v>
       </c>
       <c r="J19" t="n">
-        <v>1.236508842791436</v>
+        <v>8.564685812310269e-12</v>
       </c>
       <c r="K19" t="n">
-        <v>0.7899693817977543</v>
+        <v>0.00173181062504838</v>
       </c>
       <c r="L19" t="n">
-        <v>1.145179269769824</v>
+        <v>0.2005188846762651</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5081056700438585</v>
+        <v>0.1159040855874363</v>
       </c>
       <c r="N19" t="n">
-        <v>1.016255968401065</v>
+        <v>1.000845867334455</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5297367803413626</v>
+        <v>0.1208383624654267</v>
       </c>
       <c r="P19" t="n">
-        <v>164.7082633645511</v>
+        <v>170.6199691131505</v>
       </c>
       <c r="Q19" t="n">
-        <v>263.4372051788753</v>
+        <v>269.3489109274747</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_18</t>
+          <t>model_22_9_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9608136423671974</v>
+        <v>0.9979910650806693</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7062503681099417</v>
+        <v>0.7654421904214924</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9780615270718759</v>
+        <v>0.999584592282676</v>
       </c>
       <c r="E20" t="n">
-        <v>-6.083885826883237</v>
+        <v>0.9999999999845474</v>
       </c>
       <c r="F20" t="n">
-        <v>0.900119482110661</v>
+        <v>0.9997186226767236</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2620393539271372</v>
+        <v>0.01343375705585977</v>
       </c>
       <c r="H20" t="n">
-        <v>1.964305141041503</v>
+        <v>1.568489152690884</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3487925533774267</v>
+        <v>0.003463621243296469</v>
       </c>
       <c r="J20" t="n">
-        <v>1.261725500590038</v>
+        <v>8.564685812310269e-12</v>
       </c>
       <c r="K20" t="n">
-        <v>0.805259199682725</v>
+        <v>0.00173181062504838</v>
       </c>
       <c r="L20" t="n">
-        <v>1.15398463667687</v>
+        <v>0.2005188846762651</v>
       </c>
       <c r="M20" t="n">
-        <v>0.511897796368706</v>
+        <v>0.1159040855874363</v>
       </c>
       <c r="N20" t="n">
-        <v>1.016499519003285</v>
+        <v>1.000845867334455</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5336903453346425</v>
+        <v>0.1208383624654267</v>
       </c>
       <c r="P20" t="n">
-        <v>164.6785211613441</v>
+        <v>170.6199691131505</v>
       </c>
       <c r="Q20" t="n">
-        <v>263.4074629756683</v>
+        <v>269.3489109274747</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_19</t>
+          <t>model_22_9_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9602631850841181</v>
+        <v>0.9979910650806693</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7050404601248303</v>
+        <v>0.7654421904214924</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9777442751104343</v>
+        <v>0.999584592282676</v>
       </c>
       <c r="E21" t="n">
-        <v>-6.213833256932551</v>
+        <v>0.9999999999845474</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8983712833295545</v>
+        <v>0.9997186226767236</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2657202643137105</v>
+        <v>0.01343375705585977</v>
       </c>
       <c r="H21" t="n">
-        <v>1.972395801309057</v>
+        <v>1.568489152690884</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3538364377926167</v>
+        <v>0.003463621243296469</v>
       </c>
       <c r="J21" t="n">
-        <v>1.284870705105777</v>
+        <v>8.564685812310269e-12</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8193535714491968</v>
+        <v>0.00173181062504838</v>
       </c>
       <c r="L21" t="n">
-        <v>1.16190813609031</v>
+        <v>0.2005188846762651</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5154806148767482</v>
+        <v>0.1159040855874363</v>
       </c>
       <c r="N21" t="n">
-        <v>1.016731290490898</v>
+        <v>1.000845867334455</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5374256918440289</v>
+        <v>0.1208383624654267</v>
       </c>
       <c r="P21" t="n">
-        <v>164.6506223229559</v>
+        <v>170.6199691131505</v>
       </c>
       <c r="Q21" t="n">
-        <v>263.3795641372802</v>
+        <v>269.3489109274747</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_20</t>
+          <t>model_22_9_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9597436486289496</v>
+        <v>0.9979910650806693</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7039245317115064</v>
+        <v>0.7654421904214924</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9774477373234268</v>
+        <v>0.999584592282676</v>
       </c>
       <c r="E22" t="n">
-        <v>-6.33283440787847</v>
+        <v>0.9999999999845474</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8967644116877798</v>
+        <v>0.9997186226767236</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2691944069816685</v>
+        <v>0.01343375705585977</v>
       </c>
       <c r="H22" t="n">
-        <v>1.979858019747333</v>
+        <v>1.568489152690884</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3585509943728344</v>
+        <v>0.003463621243296469</v>
       </c>
       <c r="J22" t="n">
-        <v>1.306066245296194</v>
+        <v>8.564685812310269e-12</v>
       </c>
       <c r="K22" t="n">
-        <v>0.8323085320320203</v>
+        <v>0.00173181062504838</v>
       </c>
       <c r="L22" t="n">
-        <v>1.169037336505119</v>
+        <v>0.2005188846762651</v>
       </c>
       <c r="M22" t="n">
-        <v>0.5188394809395951</v>
+        <v>0.1159040855874363</v>
       </c>
       <c r="N22" t="n">
-        <v>1.016950042682548</v>
+        <v>1.000845867334455</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5409275517889824</v>
+        <v>0.1208383624654267</v>
       </c>
       <c r="P22" t="n">
-        <v>164.6246429157399</v>
+        <v>170.6199691131505</v>
       </c>
       <c r="Q22" t="n">
-        <v>263.3535847300641</v>
+        <v>269.3489109274747</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_21</t>
+          <t>model_22_9_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9592564930204938</v>
+        <v>0.9979910650806693</v>
       </c>
       <c r="C23" t="n">
-        <v>0.702898407792296</v>
+        <v>0.7654421904214924</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9771720808084309</v>
+        <v>0.999584592282676</v>
       </c>
       <c r="E23" t="n">
-        <v>-6.441605638046064</v>
+        <v>0.9999999999845474</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8952911206745179</v>
+        <v>0.9997186226767236</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2724520187785575</v>
+        <v>0.01343375705585977</v>
       </c>
       <c r="H23" t="n">
-        <v>1.986719715119958</v>
+        <v>1.568489152690884</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3629335664887497</v>
+        <v>0.003463621243296469</v>
       </c>
       <c r="J23" t="n">
-        <v>1.325439713218585</v>
+        <v>8.564685812310269e-12</v>
       </c>
       <c r="K23" t="n">
-        <v>0.8441865355437106</v>
+        <v>0.00173181062504838</v>
       </c>
       <c r="L23" t="n">
-        <v>1.175450578968945</v>
+        <v>0.2005188846762651</v>
       </c>
       <c r="M23" t="n">
-        <v>0.5219693657472222</v>
+        <v>0.1159040855874363</v>
       </c>
       <c r="N23" t="n">
-        <v>1.017155160833476</v>
+        <v>1.000845867334455</v>
       </c>
       <c r="O23" t="n">
-        <v>0.544190682272625</v>
+        <v>0.1208383624654267</v>
       </c>
       <c r="P23" t="n">
-        <v>164.6005855165184</v>
+        <v>170.6199691131505</v>
       </c>
       <c r="Q23" t="n">
-        <v>263.3295273308427</v>
+        <v>269.3489109274747</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_22</t>
+          <t>model_22_9_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9588023797086571</v>
+        <v>0.9979910650806693</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7019574177323982</v>
+        <v>0.7654421904214924</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9769170255462688</v>
+        <v>0.999584592282676</v>
       </c>
       <c r="E24" t="n">
-        <v>-6.540834816953185</v>
+        <v>0.9999999999845474</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8939435297830888</v>
+        <v>0.9997186226767236</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2754886765858088</v>
+        <v>0.01343375705585977</v>
       </c>
       <c r="H24" t="n">
-        <v>1.993012119983356</v>
+        <v>1.568489152690884</v>
       </c>
       <c r="I24" t="n">
-        <v>0.366988606073014</v>
+        <v>0.003463621243296469</v>
       </c>
       <c r="J24" t="n">
-        <v>1.343113626730092</v>
+        <v>8.564685812310269e-12</v>
       </c>
       <c r="K24" t="n">
-        <v>0.8550511164015531</v>
+        <v>0.00173181062504838</v>
       </c>
       <c r="L24" t="n">
-        <v>1.181219507430175</v>
+        <v>0.2005188846762651</v>
       </c>
       <c r="M24" t="n">
-        <v>0.5248701521193683</v>
+        <v>0.1159040855874363</v>
       </c>
       <c r="N24" t="n">
-        <v>1.01734636643846</v>
+        <v>1.000845867334455</v>
       </c>
       <c r="O24" t="n">
-        <v>0.5472149611260889</v>
+        <v>0.1208383624654267</v>
       </c>
       <c r="P24" t="n">
-        <v>164.5784175051116</v>
+        <v>170.6199691131505</v>
       </c>
       <c r="Q24" t="n">
-        <v>263.3073593194358</v>
+        <v>269.3489109274747</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_22_9_23</t>
+          <t>model_22_9_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9583808423373047</v>
+        <v>0.9979910650806693</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7010963973124276</v>
+        <v>0.7654421904214924</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9766818110363783</v>
+        <v>0.999584592282676</v>
       </c>
       <c r="E25" t="n">
-        <v>-6.631250255646643</v>
+        <v>0.9999999999845474</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8927128609131889</v>
+        <v>0.9997186226767236</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2783074989290437</v>
+        <v>0.01343375705585977</v>
       </c>
       <c r="H25" t="n">
-        <v>1.998769767496334</v>
+        <v>1.568489152690884</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3707282040735187</v>
+        <v>0.003463621243296469</v>
       </c>
       <c r="J25" t="n">
-        <v>1.359217706811908</v>
+        <v>8.564685812310269e-12</v>
       </c>
       <c r="K25" t="n">
-        <v>0.8649730456245073</v>
+        <v>0.00173181062504838</v>
       </c>
       <c r="L25" t="n">
-        <v>1.186411026166021</v>
+        <v>0.2005188846762651</v>
       </c>
       <c r="M25" t="n">
-        <v>0.5275485749474106</v>
+        <v>0.1159040855874363</v>
       </c>
       <c r="N25" t="n">
-        <v>1.017523855857977</v>
+        <v>1.000845867334455</v>
       </c>
       <c r="O25" t="n">
-        <v>0.5500074099590205</v>
+        <v>0.1208383624654267</v>
       </c>
       <c r="P25" t="n">
-        <v>164.5580573306526</v>
+        <v>170.6199691131505</v>
       </c>
       <c r="Q25" t="n">
-        <v>263.2869991449768</v>
+        <v>269.3489109274747</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9579910669905393</v>
+        <v>0.9979910650806693</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7003101112713841</v>
+        <v>0.7654421904214924</v>
       </c>
       <c r="D26" t="n">
-        <v>0.97646553231074</v>
+        <v>0.999584592282676</v>
       </c>
       <c r="E26" t="n">
-        <v>-6.713526745934009</v>
+        <v>0.9999999999845474</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8915907885790988</v>
+        <v>0.9997186226767236</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2809139284676142</v>
+        <v>0.01343375705585977</v>
       </c>
       <c r="H26" t="n">
-        <v>2.004027665873306</v>
+        <v>1.568489152690884</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3741667482786586</v>
+        <v>0.003463621243296469</v>
       </c>
       <c r="J26" t="n">
-        <v>1.373872142023252</v>
+        <v>8.564685812310269e-12</v>
       </c>
       <c r="K26" t="n">
-        <v>0.8740194451509556</v>
+        <v>0.00173181062504838</v>
       </c>
       <c r="L26" t="n">
-        <v>1.191082459858193</v>
+        <v>0.2005188846762651</v>
       </c>
       <c r="M26" t="n">
-        <v>0.530013139900903</v>
+        <v>0.1159040855874363</v>
       </c>
       <c r="N26" t="n">
-        <v>1.017687971793457</v>
+        <v>1.000845867334455</v>
       </c>
       <c r="O26" t="n">
-        <v>0.5525768965449359</v>
+        <v>0.1208383624654267</v>
       </c>
       <c r="P26" t="n">
-        <v>164.5394139219098</v>
+        <v>170.6199691131505</v>
       </c>
       <c r="Q26" t="n">
-        <v>263.268355736234</v>
+        <v>269.3489109274747</v>
       </c>
     </row>
   </sheetData>
